--- a/superADAM/REACT/OutputComputations_Example1.xlsx
+++ b/superADAM/REACT/OutputComputations_Example1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="0" windowWidth="21040" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -190,21 +190,6 @@
   </si>
   <si>
     <t xml:space="preserve">        "x4": {"x3": 1, "x4":0.5}  </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    "variableScores": { </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Number of appearances in polyFunctions)/Total number of polyFunctions}</t>
-    </r>
   </si>
   <si>
     <r>
@@ -244,6 +229,21 @@
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    "variableScores": { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Number of appearances of variable x_i  in polyFunctions)/Total number of polyFunctions}</t>
     </r>
   </si>
 </sst>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A63" sqref="A61:A63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -770,7 +770,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2"/>
     </row>
@@ -808,7 +808,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -867,7 +867,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -904,7 +904,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -951,7 +951,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -998,7 +998,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1035,7 +1035,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1055,7 +1055,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6">
